--- a/data/trans_orig/P14A08-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14A08-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D4C791F2-294F-4DF3-ABF4-BB6E02C9C375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE314E74-F4AC-4005-ACB3-603D0137E20E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6FFBB44A-F1AC-4384-A3F3-25C3B18CA2B7}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BF18F039-A729-49F0-BAF8-CDD943F95AE3}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -111,7 +111,7 @@
     <t>78,65%</t>
   </si>
   <si>
-    <t>18,47%</t>
+    <t>18,51%</t>
   </si>
   <si>
     <t>69,43%</t>
@@ -120,13 +120,13 @@
     <t>89,18%</t>
   </si>
   <si>
-    <t>57,3%</t>
+    <t>47,43%</t>
   </si>
   <si>
     <t>21,35%</t>
   </si>
   <si>
-    <t>81,53%</t>
+    <t>81,49%</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -135,7 +135,7 @@
     <t>10,82%</t>
   </si>
   <si>
-    <t>42,7%</t>
+    <t>52,57%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -159,49 +159,49 @@
     <t>93,02%</t>
   </si>
   <si>
-    <t>69,58%</t>
+    <t>61,93%</t>
   </si>
   <si>
     <t>68,25%</t>
   </si>
   <si>
-    <t>34,2%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
   </si>
   <si>
     <t>83,69%</t>
   </si>
   <si>
-    <t>64,75%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
+    <t>64,83%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
   </si>
   <si>
     <t>6,98%</t>
   </si>
   <si>
-    <t>30,42%</t>
+    <t>38,07%</t>
   </si>
   <si>
     <t>31,75%</t>
   </si>
   <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>65,8%</t>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>66,27%</t>
   </si>
   <si>
     <t>16,31%</t>
   </si>
   <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>35,17%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -210,10 +210,10 @@
     <t>90,57%</t>
   </si>
   <si>
-    <t>78,97%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
+    <t>78,8%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
   </si>
   <si>
     <t>95,16%</t>
@@ -225,19 +225,19 @@
     <t>92,05%</t>
   </si>
   <si>
-    <t>83,67%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
+    <t>82,49%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
   </si>
   <si>
     <t>9,43%</t>
   </si>
   <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
   </si>
   <si>
     <t>4,84%</t>
@@ -249,64 +249,64 @@
     <t>7,95%</t>
   </si>
   <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
   </si>
   <si>
     <t>91,36%</t>
   </si>
   <si>
-    <t>83,52%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
+    <t>83,36%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
   </si>
   <si>
     <t>90,45%</t>
   </si>
   <si>
-    <t>77,99%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
+    <t>78,49%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
   </si>
   <si>
     <t>91,03%</t>
   </si>
   <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
+    <t>84,62%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
   </si>
   <si>
     <t>8,64%</t>
   </si>
   <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
   </si>
   <si>
     <t>9,55%</t>
   </si>
   <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
   </si>
   <si>
     <t>8,97%</t>
   </si>
   <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -880,7 +880,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77982FB4-382B-4BFF-A017-2C5B142270B5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66A755B0-9976-4768-8B5A-13950695D07D}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2081,7 +2081,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80E41C57-7933-4D32-AAA3-55BE9F5C0EAC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCE8D451-E81C-4BB1-9811-3CF13A4A40F3}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P14A08-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14A08-Edad-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE314E74-F4AC-4005-ACB3-603D0137E20E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{656BC4DC-99FC-4E4F-A824-F1C610597FC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BF18F039-A729-49F0-BAF8-CDD943F95AE3}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{447DA259-0CEB-4168-97D9-2CDCF262691D}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -111,7 +111,7 @@
     <t>78,65%</t>
   </si>
   <si>
-    <t>18,51%</t>
+    <t>19,04%</t>
   </si>
   <si>
     <t>69,43%</t>
@@ -120,13 +120,13 @@
     <t>89,18%</t>
   </si>
   <si>
-    <t>47,43%</t>
+    <t>57,22%</t>
   </si>
   <si>
     <t>21,35%</t>
   </si>
   <si>
-    <t>81,49%</t>
+    <t>80,96%</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -135,7 +135,7 @@
     <t>10,82%</t>
   </si>
   <si>
-    <t>52,57%</t>
+    <t>42,78%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -159,49 +159,49 @@
     <t>93,02%</t>
   </si>
   <si>
-    <t>61,93%</t>
+    <t>67,17%</t>
   </si>
   <si>
     <t>68,25%</t>
   </si>
   <si>
-    <t>33,73%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
+    <t>34,4%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
   </si>
   <si>
     <t>83,69%</t>
   </si>
   <si>
-    <t>64,83%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
+    <t>65,11%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
   </si>
   <si>
     <t>6,98%</t>
   </si>
   <si>
-    <t>38,07%</t>
+    <t>32,83%</t>
   </si>
   <si>
     <t>31,75%</t>
   </si>
   <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>66,27%</t>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>65,6%</t>
   </si>
   <si>
     <t>16,31%</t>
   </si>
   <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>35,17%</t>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -210,109 +210,109 @@
     <t>90,57%</t>
   </si>
   <si>
-    <t>78,8%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
+    <t>79,32%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
   </si>
   <si>
     <t>95,16%</t>
   </si>
   <si>
-    <t>72,36%</t>
+    <t>70,21%</t>
   </si>
   <si>
     <t>92,05%</t>
   </si>
   <si>
-    <t>82,49%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
+    <t>84,05%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
   </si>
   <si>
     <t>9,43%</t>
   </si>
   <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
   </si>
   <si>
     <t>4,84%</t>
   </si>
   <si>
-    <t>27,64%</t>
+    <t>29,79%</t>
   </si>
   <si>
     <t>7,95%</t>
   </si>
   <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
   </si>
   <si>
     <t>91,36%</t>
   </si>
   <si>
-    <t>83,36%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
   </si>
   <si>
     <t>90,45%</t>
   </si>
   <si>
-    <t>78,49%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
+    <t>78,44%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
   </si>
   <si>
     <t>91,03%</t>
   </si>
   <si>
-    <t>84,62%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
+    <t>84,78%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
   </si>
   <si>
     <t>8,64%</t>
   </si>
   <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
   </si>
   <si>
     <t>9,55%</t>
   </si>
   <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
   </si>
   <si>
     <t>8,97%</t>
   </si>
   <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población que recibe medicación o terapia por enfermedad crónica de pulmón en 2015 (Tasa respuesta: 1,63%)</t>
+    <t>Población que recibe medicación o terapia por enfermedad crónica de pulmón en 2016 (Tasa respuesta: 1,63%)</t>
   </si>
   <si>
     <t>55,59%</t>
@@ -348,7 +348,7 @@
     <t>82,96%</t>
   </si>
   <si>
-    <t>47,08%</t>
+    <t>46,6%</t>
   </si>
   <si>
     <t>23,25%</t>
@@ -360,13 +360,13 @@
     <t>17,04%</t>
   </si>
   <si>
-    <t>52,92%</t>
+    <t>53,4%</t>
   </si>
   <si>
     <t>89,21%</t>
   </si>
   <si>
-    <t>65,51%</t>
+    <t>67,48%</t>
   </si>
   <si>
     <t>73,58%</t>
@@ -375,13 +375,13 @@
     <t>91,91%</t>
   </si>
   <si>
-    <t>74,25%</t>
+    <t>72,72%</t>
   </si>
   <si>
     <t>10,79%</t>
   </si>
   <si>
-    <t>34,49%</t>
+    <t>32,52%</t>
   </si>
   <si>
     <t>26,42%</t>
@@ -390,13 +390,13 @@
     <t>8,09%</t>
   </si>
   <si>
-    <t>25,75%</t>
+    <t>27,28%</t>
   </si>
   <si>
     <t>94,01%</t>
   </si>
   <si>
-    <t>80,46%</t>
+    <t>79,4%</t>
   </si>
   <si>
     <t>92,39%</t>
@@ -405,13 +405,13 @@
     <t>96,81%</t>
   </si>
   <si>
-    <t>89,43%</t>
+    <t>89,35%</t>
   </si>
   <si>
     <t>5,99%</t>
   </si>
   <si>
-    <t>19,54%</t>
+    <t>20,6%</t>
   </si>
   <si>
     <t>7,61%</t>
@@ -420,55 +420,55 @@
     <t>3,19%</t>
   </si>
   <si>
-    <t>10,57%</t>
+    <t>10,65%</t>
   </si>
   <si>
     <t>90,44%</t>
   </si>
   <si>
-    <t>81,65%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
+    <t>81,68%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
   </si>
   <si>
     <t>95,74%</t>
   </si>
   <si>
-    <t>86,67%</t>
+    <t>86,52%</t>
   </si>
   <si>
     <t>92,59%</t>
   </si>
   <si>
-    <t>85,3%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
+    <t>86,16%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
   </si>
   <si>
     <t>9,56%</t>
   </si>
   <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
   </si>
   <si>
     <t>4,26%</t>
   </si>
   <si>
-    <t>13,33%</t>
+    <t>13,48%</t>
   </si>
   <si>
     <t>7,41%</t>
   </si>
   <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
   </si>
 </sst>
 </file>
@@ -880,7 +880,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66A755B0-9976-4768-8B5A-13950695D07D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{609D45A1-F39D-4B83-B84B-C5B7988BB05D}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2081,7 +2081,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCE8D451-E81C-4BB1-9811-3CF13A4A40F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D1A6BDE-9AC9-4D70-997F-0A3205E09C14}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
